--- a/test_signup/Amsterdam/NTDS_Delft.xlsx
+++ b/test_signup/Amsterdam/NTDS_Delft.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18000" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -296,16 +293,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -669,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,18 +698,18 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -724,16 +721,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -742,65 +739,62 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="O2" s="2"/>
@@ -812,32 +806,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
@@ -866,25 +860,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -893,10 +887,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" s="2"/>
       <c r="O4" s="2"/>
@@ -908,29 +902,29 @@
         <v>5</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
@@ -939,10 +933,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="2"/>
       <c r="O5" s="2"/>
@@ -956,25 +950,25 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2">
         <v>10</v>
@@ -983,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M6" s="2"/>
       <c r="O6" s="2"/>
@@ -998,23 +992,23 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
@@ -1022,7 +1016,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M7" s="2"/>
       <c r="O7" s="2"/>
@@ -1036,33 +1030,33 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1078,25 +1072,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3">
         <v>20</v>
@@ -1105,10 +1099,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="2"/>
       <c r="O9" s="2"/>
@@ -1119,38 +1113,38 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2">
         <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="2"/>
       <c r="O10" s="2"/>
@@ -1160,43 +1154,43 @@
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="S11" s="2" t="s">
@@ -1206,24 +1200,24 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
@@ -1231,7 +1225,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="2"/>
@@ -1243,26 +1237,26 @@
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -1270,7 +1264,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
@@ -1280,26 +1274,26 @@
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
@@ -1307,7 +1301,7 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="3"/>
       <c r="M14" s="2"/>
@@ -1319,31 +1313,31 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="3"/>
       <c r="M15" s="2"/>
@@ -1356,33 +1350,33 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
         <v>5</v>
@@ -1407,24 +1401,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s">
         <v>5</v>
@@ -1442,7 +1436,7 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1450,24 +1444,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M18" s="2"/>
       <c r="O18" s="2"/>
@@ -1479,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1490,18 +1484,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
@@ -1509,7 +1503,7 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="2"/>
       <c r="O19" s="2"/>
@@ -1528,18 +1522,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
@@ -1547,7 +1541,7 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
         <v>5</v>
@@ -1567,20 +1561,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="2">
         <v>8</v>
@@ -1589,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M21" s="2"/>
       <c r="O21" s="2"/>

--- a/test_signup/Amsterdam/NTDS_Delft.xlsx
+++ b/test_signup/Amsterdam/NTDS_Delft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="1215" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>Nr.</t>
   </si>
@@ -684,7 +684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:W21"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>28</v>
@@ -1426,12 +1426,6 @@
       </c>
       <c r="K20" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2507,7 +2501,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="str">
-        <f t="shared" ref="A194:A225" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
+        <f t="shared" ref="A194:A201" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
         <v/>
       </c>
     </row>
